--- a/data/trans_camb/P3A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 0,12</t>
+          <t>-4,62; 0,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,09</t>
+          <t>-0,05; 7,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,79; 51,26</t>
+          <t>35,09; 51,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 7,3</t>
+          <t>-1,61; 7,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 13,33</t>
+          <t>3,02; 13,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,47; 62,62</t>
+          <t>46,34; 62,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,78</t>
+          <t>-2,39; 3,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 8,74</t>
+          <t>2,57; 8,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>42,91; 54,99</t>
+          <t>42,76; 54,81</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-78,5; 8,95</t>
+          <t>-77,66; 10,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 218,22</t>
+          <t>-4,52; 224,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>593,7; 1741,1</t>
+          <t>590,23; 1710,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 74,68</t>
+          <t>-10,93; 78,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,61; 138,51</t>
+          <t>20,48; 133,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>318,17; 650,43</t>
+          <t>327,1; 629,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,97; 39,16</t>
+          <t>-24,17; 44,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,18; 126,86</t>
+          <t>26,99; 130,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>459,64; 793,72</t>
+          <t>430,48; 774,7</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 6,6</t>
+          <t>-0,13; 6,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 8,49</t>
+          <t>1,17; 8,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,36; 64,25</t>
+          <t>50,94; 63,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 8,83</t>
+          <t>-3,47; 8,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 7,72</t>
+          <t>-3,96; 7,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>42,46; 52,15</t>
+          <t>43,03; 52,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 6,53</t>
+          <t>-0,4; 6,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 7,67</t>
+          <t>1,0; 8,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>50,99; 58,97</t>
+          <t>51,68; 59,42</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 94,68</t>
+          <t>-1,98; 88,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,27; 125,53</t>
+          <t>11,65; 124,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>514,59; 995,11</t>
+          <t>505,65; 952,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 20,91</t>
+          <t>-7,27; 19,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 18,58</t>
+          <t>-7,94; 18,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>86,76; 125,49</t>
+          <t>88,05; 125,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 27,52</t>
+          <t>-1,53; 29,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 31,98</t>
+          <t>3,77; 34,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>186,35; 252,41</t>
+          <t>188,56; 258,74</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 3,11</t>
+          <t>-2,97; 3,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,95; 10,96</t>
+          <t>3,38; 10,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>63,25; 72,76</t>
+          <t>63,42; 72,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 7,52</t>
+          <t>-2,29; 7,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,74; -4,22</t>
+          <t>-14,77; -4,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,45; 36,73</t>
+          <t>28,89; 36,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 4,77</t>
+          <t>-2,64; 4,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 1,28</t>
+          <t>-6,69; 1,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>46,51; 53,37</t>
+          <t>46,33; 53,33</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,54; 47,41</t>
+          <t>-29,94; 46,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,74; 158,53</t>
+          <t>32,61; 157,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>587,36; 1124,33</t>
+          <t>584,17; 1093,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 12,14</t>
+          <t>-3,34; 12,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,1; -7,16</t>
+          <t>-22,25; -7,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>43,59; 60,58</t>
+          <t>42,69; 60,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 13,24</t>
+          <t>-6,61; 12,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 3,47</t>
+          <t>-16,78; 3,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>116,44; 152,01</t>
+          <t>116,0; 153,08</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 6,68</t>
+          <t>-0,87; 6,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,6; 12,47</t>
+          <t>4,11; 12,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>41,07; 65,47</t>
+          <t>44,35; 65,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 4,93</t>
+          <t>-6,43; 5,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,55; -0,55</t>
+          <t>-11,87; -0,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,32; 29,54</t>
+          <t>21,67; 29,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 5,61</t>
+          <t>-3,47; 5,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 5,38</t>
+          <t>-2,92; 5,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>32,52; 47,01</t>
+          <t>31,72; 46,92</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 99,25</t>
+          <t>-7,83; 103,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>39,49; 186,41</t>
+          <t>37,61; 195,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>468,03; 1036,88</t>
+          <t>462,81; 1036,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 7,2</t>
+          <t>-8,7; 7,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,55; -0,82</t>
+          <t>-15,87; -0,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,11; 43,39</t>
+          <t>28,73; 43,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 14,76</t>
+          <t>-8,14; 13,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 14,23</t>
+          <t>-6,68; 15,3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>82,03; 124,81</t>
+          <t>82,04; 126,16</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 4,07</t>
+          <t>-3,81; 4,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,22; 11,19</t>
+          <t>1,97; 11,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>56,03; 64,75</t>
+          <t>56,07; 65,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 3,72</t>
+          <t>-9,27; 3,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 6,86</t>
+          <t>-5,85; 6,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>20,31; 29,39</t>
+          <t>19,88; 29,29</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 3,57</t>
+          <t>-5,92; 4,15</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 8,17</t>
+          <t>-1,08; 8,49</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>37,77; 45,86</t>
+          <t>38,06; 46,05</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,3; 70,5</t>
+          <t>-39,28; 69,18</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>20,62; 203,22</t>
+          <t>18,1; 187,39</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>520,77; 1114,81</t>
+          <t>526,74; 1139,43</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 5,46</t>
+          <t>-12,35; 4,76</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 9,88</t>
+          <t>-7,78; 8,86</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>26,74; 43,39</t>
+          <t>25,77; 43,29</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 9,55</t>
+          <t>-13,68; 11,01</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 21,52</t>
+          <t>-2,54; 22,52</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>85,87; 123,26</t>
+          <t>86,12; 122,79</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 3,86</t>
+          <t>-4,59; 4,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 7,19</t>
+          <t>-1,42; 6,79</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>38,91; 47,62</t>
+          <t>38,5; 47,12</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 0,21</t>
+          <t>-10,85; -0,05</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 8,99</t>
+          <t>-2,41; 8,39</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>25,5; 35,36</t>
+          <t>25,16; 35,34</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 0,33</t>
+          <t>-7,56; 0,47</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 6,85</t>
+          <t>-1,03; 7,07</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>32,39; 41,66</t>
+          <t>32,67; 42,22</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-29,62; 35,51</t>
+          <t>-30,14; 35,77</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 67,27</t>
+          <t>-9,13; 63,3</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>242,3; 464,07</t>
+          <t>242,88; 439,45</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 0,44</t>
+          <t>-18,54; -0,2</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 16,72</t>
+          <t>-4,09; 15,72</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>42,6; 66,47</t>
+          <t>42,21; 66,84</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 0,95</t>
+          <t>-18,93; 1,45</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 18,86</t>
+          <t>-2,49; 19,9</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>80,63; 114,54</t>
+          <t>81,25; 117,67</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,29</t>
+          <t>-0,59; 2,18</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4,11; 7,48</t>
+          <t>4,08; 7,43</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>52,59; 58,29</t>
+          <t>52,26; 58,21</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,24</t>
+          <t>-1,57; 3,2</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 3,63</t>
+          <t>-0,96; 3,63</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>34,46; 38,6</t>
+          <t>34,66; 38,87</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 2,58</t>
+          <t>-0,6; 2,56</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,3</t>
+          <t>1,94; 5,22</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>44,53; 48,69</t>
+          <t>44,43; 48,62</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 29,33</t>
+          <t>-6,54; 28,27</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>44,51; 97,28</t>
+          <t>43,45; 93,54</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>573,57; 763,18</t>
+          <t>574,14; 770,35</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 6,06</t>
+          <t>-2,86; 5,95</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 6,89</t>
+          <t>-1,73; 6,85</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>61,99; 73,69</t>
+          <t>62,27; 73,38</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 8,28</t>
+          <t>-1,85; 8,4</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>5,83; 17,06</t>
+          <t>6,0; 16,97</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>136,91; 158,94</t>
+          <t>137,87; 158,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P3A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,07</t>
+          <t>-4,63; -0,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 7,23</t>
+          <t>-0,1; 7,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,09; 51,59</t>
+          <t>35,64; 51,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 7,58</t>
+          <t>-1,82; 7,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 13,32</t>
+          <t>3,35; 13,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,34; 62,24</t>
+          <t>47,21; 62,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 3,01</t>
+          <t>-2,31; 3,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 8,81</t>
+          <t>2,86; 8,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>42,76; 54,81</t>
+          <t>43,02; 54,91</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-77,66; 10,85</t>
+          <t>-77,31; 4,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 224,88</t>
+          <t>-6,54; 224,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>590,23; 1710,78</t>
+          <t>609,92; 1640,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 78,46</t>
+          <t>-13,2; 78,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,48; 133,78</t>
+          <t>23,44; 135,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>327,1; 629,2</t>
+          <t>325,51; 627,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,17; 44,01</t>
+          <t>-24,34; 45,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,99; 130,0</t>
+          <t>28,39; 127,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>430,48; 774,7</t>
+          <t>447,07; 796,23</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 6,22</t>
+          <t>-0,31; 6,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 8,42</t>
+          <t>1,41; 8,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>50,94; 63,73</t>
+          <t>51,63; 64,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 8,24</t>
+          <t>-3,8; 8,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 7,77</t>
+          <t>-3,82; 7,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>43,03; 52,36</t>
+          <t>42,31; 51,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 6,93</t>
+          <t>-0,71; 6,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 8,05</t>
+          <t>0,76; 8,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>51,68; 59,42</t>
+          <t>51,39; 59,41</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 88,27</t>
+          <t>-3,57; 89,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,65; 124,3</t>
+          <t>12,37; 119,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>505,65; 952,4</t>
+          <t>513,58; 947,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 19,17</t>
+          <t>-8,28; 19,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 18,34</t>
+          <t>-7,84; 17,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,05; 125,2</t>
+          <t>86,88; 124,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 29,28</t>
+          <t>-2,43; 28,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,77; 34,05</t>
+          <t>2,73; 33,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>188,56; 258,74</t>
+          <t>187,79; 256,62</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 3,17</t>
+          <t>-3,17; 3,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,38; 10,85</t>
+          <t>3,08; 10,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>63,42; 72,28</t>
+          <t>63,84; 72,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 7,83</t>
+          <t>-3,38; 7,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,77; -4,37</t>
+          <t>-14,64; -3,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,89; 36,56</t>
+          <t>28,85; 36,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 4,46</t>
+          <t>-3,12; 4,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 1,15</t>
+          <t>-5,96; 1,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>46,33; 53,33</t>
+          <t>46,16; 53,2</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,94; 46,7</t>
+          <t>-31,0; 45,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>32,61; 157,3</t>
+          <t>28,07; 153,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>584,17; 1093,53</t>
+          <t>597,35; 1099,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 12,92</t>
+          <t>-5,08; 11,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,25; -7,08</t>
+          <t>-21,98; -6,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>42,69; 60,22</t>
+          <t>42,33; 59,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 12,19</t>
+          <t>-7,83; 13,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 3,42</t>
+          <t>-15,33; 4,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>116,0; 153,08</t>
+          <t>115,4; 151,72</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 6,65</t>
+          <t>-0,39; 6,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,11; 12,09</t>
+          <t>4,16; 12,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44,35; 65,81</t>
+          <t>43,11; 65,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 5,25</t>
+          <t>-6,33; 4,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,87; -0,18</t>
+          <t>-12,01; -0,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,67; 29,82</t>
+          <t>21,41; 29,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 5,02</t>
+          <t>-2,95; 5,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 5,64</t>
+          <t>-3,02; 5,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>31,72; 46,92</t>
+          <t>32,92; 47,24</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 103,59</t>
+          <t>-3,88; 101,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>37,61; 195,16</t>
+          <t>37,65; 189,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>462,81; 1036,8</t>
+          <t>444,06; 1033,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 7,59</t>
+          <t>-8,65; 6,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,87; -0,32</t>
+          <t>-15,91; -0,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,73; 43,85</t>
+          <t>28,39; 43,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 13,18</t>
+          <t>-7,02; 14,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 15,3</t>
+          <t>-6,99; 13,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>82,04; 126,16</t>
+          <t>83,44; 126,24</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 4,17</t>
+          <t>-3,41; 4,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,97; 11,11</t>
+          <t>2,49; 10,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>56,07; 65,11</t>
+          <t>55,61; 65,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 3,23</t>
+          <t>-7,83; 4,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 6,11</t>
+          <t>-6,02; 6,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,88; 29,29</t>
+          <t>20,3; 29,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 4,15</t>
+          <t>-5,93; 3,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 8,49</t>
+          <t>-1,17; 8,28</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>38,06; 46,05</t>
+          <t>37,94; 45,76</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,28; 69,18</t>
+          <t>-33,96; 73,77</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>18,1; 187,39</t>
+          <t>22,04; 173,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>526,74; 1139,43</t>
+          <t>531,33; 1148,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 4,76</t>
+          <t>-10,85; 6,22</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 8,86</t>
+          <t>-8,0; 8,89</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>25,77; 43,29</t>
+          <t>26,71; 43,66</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 11,01</t>
+          <t>-13,72; 10,04</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 22,52</t>
+          <t>-2,67; 21,81</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>86,12; 122,79</t>
+          <t>86,11; 121,61</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 4,0</t>
+          <t>-4,82; 3,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 6,79</t>
+          <t>-1,13; 6,85</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>38,5; 47,12</t>
+          <t>38,77; 46,96</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,85; -0,05</t>
+          <t>-10,51; 0,18</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 8,39</t>
+          <t>-2,04; 8,58</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>25,16; 35,34</t>
+          <t>24,89; 34,67</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 0,47</t>
+          <t>-7,32; 0,6</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 7,07</t>
+          <t>-1,34; 7,05</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>32,67; 42,22</t>
+          <t>32,32; 41,49</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-30,14; 35,77</t>
+          <t>-31,28; 33,98</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 63,3</t>
+          <t>-7,72; 63,41</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>242,88; 439,45</t>
+          <t>243,93; 435,9</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-18,54; -0,2</t>
+          <t>-17,82; 0,36</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 15,72</t>
+          <t>-3,41; 16,06</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>42,21; 66,84</t>
+          <t>41,75; 65,0</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 1,45</t>
+          <t>-18,25; 1,66</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 19,9</t>
+          <t>-3,47; 19,65</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>81,25; 117,67</t>
+          <t>80,0; 113,48</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,18</t>
+          <t>-0,67; 2,4</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4,08; 7,43</t>
+          <t>4,33; 7,56</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>52,26; 58,21</t>
+          <t>52,2; 58,22</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,2</t>
+          <t>-1,47; 3,42</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,63</t>
+          <t>-1,24; 3,63</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>34,66; 38,87</t>
+          <t>34,73; 39,12</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 2,56</t>
+          <t>-0,61; 2,57</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,94; 5,22</t>
+          <t>1,99; 5,44</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>44,43; 48,62</t>
+          <t>44,48; 48,74</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 28,27</t>
+          <t>-7,43; 30,68</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>43,45; 93,54</t>
+          <t>46,45; 97,77</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>574,14; 770,35</t>
+          <t>572,2; 765,61</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 5,95</t>
+          <t>-2,66; 6,54</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 6,85</t>
+          <t>-2,21; 6,87</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>62,27; 73,38</t>
+          <t>62,45; 74,55</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 8,4</t>
+          <t>-1,95; 8,38</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>6,0; 16,97</t>
+          <t>6,08; 17,55</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>137,87; 158,29</t>
+          <t>137,77; 159,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P3A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tareas del hogar realizadas por el/la entrevistado/a</t>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente el/la entrevistado/a</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>43,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>55,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>49,04</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,63; -0,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 7,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,64; 51,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 7,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 13,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>47,21; 62,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 3,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 8,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>43,02; 54,91</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-49,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>73,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>977,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>67,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>454,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>69,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>598,77%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-77,31; 4,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 224,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>609,92; 1640,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 78,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,44; 135,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>325,51; 627,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 45,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,39; 127,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>447,07; 796,23</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>57,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>47,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>55,23</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 6,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 8,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,63; 64,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 8,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 7,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>42,31; 51,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 6,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 8,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>51,39; 59,41</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>57,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>704,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>104,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>217,99%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 89,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,37; 119,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>513,58; 947,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 19,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 17,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>86,88; 124,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 28,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 33,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>187,79; 256,62</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>68,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-9,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>32,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>49,9</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 3,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,08; 10,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>63,84; 72,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 7,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,64; -3,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,85; 36,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 4,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 1,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>46,16; 53,2</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>84,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>802,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-15,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>50,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-6,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>132,68%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,0; 45,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28,07; 153,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>597,35; 1099,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 11,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,98; -6,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>42,33; 59,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 13,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 4,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>115,4; 151,72</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>58,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-6,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>42,51</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 6,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,16; 12,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>43,11; 65,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 4,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,01; -0,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,41; 29,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 5,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 5,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>32,92; 47,24</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>35,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>100,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>702,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-8,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>106,27%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 101,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>37,65; 189,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>444,06; 1033,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 6,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,91; -0,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,39; 43,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 14,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 13,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>83,44; 126,24</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>60,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>24,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>41,92</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 4,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,49; 10,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55,61; 65,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 4,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 6,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>20,3; 29,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 3,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 8,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>37,94; 45,76</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>84,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>763,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-3,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>34,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-2,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>102,84%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-33,96; 73,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>22,04; 173,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>531,33; 1148,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 6,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 8,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>26,71; 43,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 10,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 21,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>86,11; 121,61</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>43,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>29,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>36,09</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 3,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 6,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>38,77; 46,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 0,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 8,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>24,89; 34,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 0,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 7,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>32,32; 41,49</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-2,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>330,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-9,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>52,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-8,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>95,34%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-31,28; 33,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 63,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>243,93; 435,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 0,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 16,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>41,75; 65,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 1,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 19,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>80,0; 113,48</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>56,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>36,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>46,85</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 2,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4,33; 7,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>52,2; 58,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>34,73; 39,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 2,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>44,48; 48,74</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>70,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>663,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>67,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>148,07%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 30,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>46,45; 97,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>572,2; 765,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 6,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 6,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>62,45; 74,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 8,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>6,08; 17,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>137,77; 159,11</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P3A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -2132,14 +2132,231 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
